--- a/iaff_assistant/documents/Insurance/Health Insurance.xlsx
+++ b/iaff_assistant/documents/Insurance/Health Insurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZPI\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB6934-C628-4076-8357-01F704E24291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F6340E-0BDC-4A56-AE9D-B2433DEBA43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1063" yWindow="1063" windowWidth="24686" windowHeight="13054" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">1.	&lt;b&gt;Public Healthcare System&lt;/b&gt;: In Poland, the public healthcare system is financed through the National Health Fund (NFZ). Employees, including foreigners, must pay health insurance fees, typically deducted from their salary by employers. This allows them to insure their family members as well.
 2.	&lt;b&gt;Voluntary Public Health Insurance&lt;/b&gt;: Individuals not obligated to be insured can still apply for public health insurance by signing an agreement with the NFZ and submitting the required documents.
@@ -69,6 +69,45 @@
   </si>
   <si>
     <t>useful_links</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>accom</t>
+  </si>
+  <si>
+    <t>insure</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>refugee</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>documentType</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -433,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F090AA91-D86B-494E-BC16-2A946FCEECB4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -446,7 +485,7 @@
     <col min="3" max="3" width="44.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -456,8 +495,47 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/iaff_assistant/documents/Insurance/Health Insurance.xlsx
+++ b/iaff_assistant/documents/Insurance/Health Insurance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZPI\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F6340E-0BDC-4A56-AE9D-B2433DEBA43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96725A7-0E00-4CCF-B438-E569B7958029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">1.	&lt;b&gt;Public Healthcare System&lt;/b&gt;: In Poland, the public healthcare system is financed through the National Health Fund (NFZ). Employees, including foreigners, must pay health insurance fees, typically deducted from their salary by employers. This allows them to insure their family members as well.
 2.	&lt;b&gt;Voluntary Public Health Insurance&lt;/b&gt;: Individuals not obligated to be insured can still apply for public health insurance by signing an agreement with the NFZ and submitting the required documents.
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance</t>
   </si>
 </sst>
 </file>
@@ -474,18 +480,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F090AA91-D86B-494E-BC16-2A946FCEECB4}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.84375" customWidth="1"/>
-    <col min="2" max="2" width="79.53515625" customWidth="1"/>
-    <col min="3" max="3" width="44.765625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -535,7 +541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -544,6 +550,21 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/iaff_assistant/documents/Insurance/Health Insurance.xlsx
+++ b/iaff_assistant/documents/Insurance/Health Insurance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDIA\ZPI\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96725A7-0E00-4CCF-B438-E569B7958029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB50C72-67E7-4E67-9ED7-3C09E5DDA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="13584" windowHeight="8964" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">1.	&lt;b&gt;Public Healthcare System&lt;/b&gt;: In Poland, the public healthcare system is financed through the National Health Fund (NFZ). Employees, including foreigners, must pay health insurance fees, typically deducted from their salary by employers. This allows them to insure their family members as well.
 2.	&lt;b&gt;Voluntary Public Health Insurance&lt;/b&gt;: Individuals not obligated to be insured can still apply for public health insurance by signing an agreement with the NFZ and submitting the required documents.
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Health Insurance</t>
+  </si>
+  <si>
+    <t>C:Users/vano/Documents/GitHub/ZPI_VAF/iaff_assistant/images/Insurance/insurance.jpg</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,18 +483,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F090AA91-D86B-494E-BC16-2A946FCEECB4}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="79.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -541,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -565,6 +568,9 @@
       </c>
       <c r="K2">
         <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/iaff_assistant/documents/Insurance/Health Insurance.xlsx
+++ b/iaff_assistant/documents/Insurance/Health Insurance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDIA\ZPI\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB50C72-67E7-4E67-9ED7-3C09E5DDA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ECF1E3-ADE6-4233-926D-B164DAD672E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="13584" windowHeight="8964" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{0D8CE4A8-9132-4B5A-AB26-70AD7ED445A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,14 +116,14 @@
     <t>Health Insurance</t>
   </si>
   <si>
-    <t>C:Users/vano/Documents/GitHub/ZPI_VAF/iaff_assistant/images/Insurance/insurance.jpg</t>
+    <t>https://iaffimages.blob.core.windows.net/imagecontainer/insurance.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,18 +167,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +499,14 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="79.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -544,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,11 +581,14 @@
       <c r="K2">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{D028082F-14C0-4DAD-883D-32B62B621400}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>